--- a/parsePDFs03/Transactions.xlsx
+++ b/parsePDFs03/Transactions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojell\Desktop\MyPaMa\_CCs\automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojell\Desktop\Oj\_Automation\parse_pdf-projects\parsePDFs03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBEACB5-F572-46F5-8F82-8CDE8650114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189007D4-074C-4F3A-A961-31F2300970DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3464B314-3BF4-4D3C-98B0-5BA7420BEEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sale Date</t>
   </si>
@@ -44,13 +44,19 @@
     <t>Post Date</t>
   </si>
   <si>
-    <t>Transaction Details</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Statement Date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
   </si>
 </sst>
 </file>
@@ -423,18 +429,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF1AF28-C413-4D2C-BC97-D10B67487166}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,13 +449,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45368</v>
       </c>
@@ -456,7 +469,7 @@
         <v>45368</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>381.11</v>

--- a/parsePDFs03/Transactions.xlsx
+++ b/parsePDFs03/Transactions.xlsx
@@ -1,80 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojell\Desktop\Oj\_Automation\parse_pdf-projects\parsePDFs03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189007D4-074C-4F3A-A961-31F2300970DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3464B314-3BF4-4D3C-98B0-5BA7420BEEAA}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BDO" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Sale Date</t>
-  </si>
-  <si>
-    <t>Post Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>FINANCE CHARGE-RETAIL PURCHASES</t>
-  </si>
-  <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>Statement Date</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,22 +55,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -428,54 +449,2644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF1AF28-C413-4D2C-BC97-D10B67487166}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" min="1" max="2"/>
+    <col width="64.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="5"/>
+    <col width="19.140625" customWidth="1" min="6" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45368</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>381.11</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sale Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Post Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Statement Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/16/23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12/18/23</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,643.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8,543.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Jan 16, 2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Feb 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/17/23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1,125.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/18/23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ARMY NAVY-TAFT AVE. MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/20/23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PIERRE CARDIN-ROB METR PASIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>750.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/20/23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JRPAY ANTIPOLO PHL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/22/23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL BOOK SM LIGHT MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/22/23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BOS COFFEE SM LIGHT MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/23/23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SM STORE-MAKATI MAKATI PH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>279.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/23/23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>238.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/23/23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SM STORE-MAKATI MAKATI PH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,198.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7,750.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8,625.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/29/23</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/31/23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-3,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 9 OF 12)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 6 OF 12)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 2 OF 6)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/03/24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/04/24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 10 OF 12)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18,342.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Feb 15, 2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mar 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 7 OF 12)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 3 OF 6)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/27/24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/28/24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>STRADIVARIUS SHANGRILA MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3,187.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/28/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/29/24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JRPAY ANTIPOLO PHL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/28/24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/30/24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1,246.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>02/11/24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WATSONS LIGHT MALL MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>652.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>02/11/24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SAVEMORE LIGHT RESIDEN MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1,324.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02/12/24</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>02/13/24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-8,543.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 11 OF 12)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36,306.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 8 OF 12)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 4 OF 6)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 1 OF 3)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>381.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SM STORE-MEGAMALL MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,799.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>02/19/24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>APERITIF-SM MEGAMALL MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3,900.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02/22/24</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-7,500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JAMBA JUICE ROB MANILA MANILA PH</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>215.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EO-EXECUTIVE OPTICAL MANILA PH</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1,375.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PHO HOA ROB PLACE MLA MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>355.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PIERRE CARDIN-ROB METR PASIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>549.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BONCHON SM LIGHT MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>369.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03/05/24</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>03/07/24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>596.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/09/24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03/11/24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,666.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EXECUTIVE OPTICAL MEG MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>900.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 12 OF 12)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36,460.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Apr 16, 2024</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>May 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 9 OF 12)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 5 OF 6)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 2 OF 3)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>270.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>03/15/24</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>03/24/24</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-23,417.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>03/23/24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>03/24/24</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7,750.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03/23/24</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>03/24/24</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8,625.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03/31/24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>03/31/24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LAZADA PH TAGUIG PH (Reference: 202403319051000010248175)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,817.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03/31/24</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04/02/24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>290.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04/01/24</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>04/03/24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>726.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04/03/24</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>04/04/24</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-12,888.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04/12/24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>04/14/24</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>223.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/14/24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>04/15/24</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GOOGLE *Elena Volkova g.co/helppay# GBR</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>200.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 10 OF 12)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20,221.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>May 16, 2024</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Jun 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 6 OF 6)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 3 OF 3)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04/17/24</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>04/18/24</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AIRBNB * HMZQ8WC3KC 328-231-2264 GBR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2,139.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04/21/24</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>04/22/24</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UDEMY: ONLINE COURSES SAN FRANCISCO USA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>604.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04/24/24</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>04/25/24</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04/27/24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04/27/24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/27/24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>208.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/28/24</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>05/02/24</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>05/05/24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-12,800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>05/05/24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5,027.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>05/08/24</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-23,660.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>05/08/24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>492.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>05/10/24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>05/12/24</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>449.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>602.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21,155.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Jun 16, 2024</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Jul 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 11 OF 12)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06/06/24</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>06/09/24</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-2,233.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 11 OF 12)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 8 OF 12)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 4 OF 6)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 1 OF 3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>381.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SM STORE-MEGAMALL MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,799.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>02/19/24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>APERITIF-SM MEGAMALL MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3,900.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02/22/24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-7,500.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>JAMBA JUICE ROB MANILA MANILA PH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>215.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EO-EXECUTIVE OPTICAL MANILA PH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,375.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PHO HOA ROB PLACE MLA MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>355.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PIERRE CARDIN-ROB METR PASIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>549.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BONCHON SM LIGHT MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>369.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>03/05/24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>03/07/24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>596.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03/09/24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>03/11/24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,666.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EXECUTIVE OPTICAL MEG MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>900.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36,306.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>36,306.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/parsePDFs03/Transactions.xlsx
+++ b/parsePDFs03/Transactions.xlsx
@@ -1,74 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojell\Desktop\MyPaMa\_CCs\automate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBEACB5-F572-46F5-8F82-8CDE8650114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3464B314-3BF4-4D3C-98B0-5BA7420BEEAA}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BDO" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Sale Date</t>
-  </si>
-  <si>
-    <t>Post Date</t>
-  </si>
-  <si>
-    <t>Transaction Details</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>FINANCE CHARGE-RETAIL PURCHASES</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,22 +55,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,47 +449,2644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF1AF28-C413-4D2C-BC97-D10B67487166}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="38.7109375" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" min="1" max="2"/>
+    <col width="64.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="5"/>
+    <col width="19.140625" customWidth="1" min="6" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45368</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>381.11</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sale Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Post Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Transaction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Statement Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/16/23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12/18/23</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,643.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8,543.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Jan 16, 2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Feb 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/17/23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1,125.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/18/23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ARMY NAVY-TAFT AVE. MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>895.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/20/23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PIERRE CARDIN-ROB METR PASIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>750.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/19/23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/20/23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JRPAY ANTIPOLO PHL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/22/23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL BOOK SM LIGHT MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/22/23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BOS COFFEE SM LIGHT MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/23/23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SM STORE-MAKATI MAKATI PH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>279.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/23/23</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>238.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/23/23</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/24/23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SM STORE-MAKATI MAKATI PH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,198.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7,750.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8,625.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/26/23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/27/23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/29/23</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/31/23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-3,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 9 OF 12)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 6 OF 12)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/16/24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 2 OF 6)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/03/24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/04/24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 10 OF 12)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18,342.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Feb 15, 2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Mar 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 7 OF 12)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>02/15/24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 3 OF 6)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/27/24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/28/24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>STRADIVARIUS SHANGRILA MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3,187.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/28/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/29/24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JRPAY ANTIPOLO PHL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/28/24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/30/24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1,246.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>02/11/24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WATSONS LIGHT MALL MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>652.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>02/11/24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SAVEMORE LIGHT RESIDEN MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1,324.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02/12/24</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>02/13/24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-8,543.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 11 OF 12)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36,306.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 8 OF 12)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 4 OF 6)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 1 OF 3)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>381.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SM STORE-MEGAMALL MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,799.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>02/19/24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>APERITIF-SM MEGAMALL MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3,900.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02/22/24</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-7,500.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JAMBA JUICE ROB MANILA MANILA PH</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>215.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EO-EXECUTIVE OPTICAL MANILA PH</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1,375.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PHO HOA ROB PLACE MLA MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>355.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PIERRE CARDIN-ROB METR PASIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>549.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BONCHON SM LIGHT MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>369.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03/05/24</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>03/07/24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>596.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/09/24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03/11/24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,666.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EXECUTIVE OPTICAL MEG MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>900.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 12 OF 12)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36,460.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Apr 16, 2024</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>May 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 9 OF 12)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 5 OF 6)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 2 OF 3)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>04/16/24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>270.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>03/15/24</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>03/24/24</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-23,417.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>03/23/24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>03/24/24</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7,750.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03/23/24</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>03/24/24</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SUN LIFE-WEB TAGUIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8,625.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03/31/24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>03/31/24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LAZADA PH TAGUIG PH (Reference: 202403319051000010248175)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,817.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03/31/24</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04/02/24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>290.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04/01/24</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>04/03/24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>726.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04/03/24</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>04/04/24</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-12,888.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04/12/24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>04/14/24</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>223.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/14/24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>04/15/24</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GOOGLE *Elena Volkova g.co/helppay# GBR</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>200.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 10 OF 12)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20,221.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>May 16, 2024</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Jun 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 6 OF 6)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>05/16/24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 3 OF 3)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04/17/24</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>04/18/24</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AIRBNB * HMZQ8WC3KC 328-231-2264 GBR</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2,139.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04/21/24</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>04/22/24</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UDEMY: ONLINE COURSES SAN FRANCISCO USA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>604.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04/24/24</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>04/25/24</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04/27/24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04/27/24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/27/24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>208.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/28/24</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>04/29/24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>05/02/24</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>05/05/24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-12,800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>05/05/24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5,027.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>05/08/24</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-23,660.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05/07/24</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>05/08/24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>492.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>05/10/24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>05/12/24</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>449.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>602.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21,155.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Jun 16, 2024</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Jul 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>06/16/24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 11 OF 12)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06/06/24</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>06/09/24</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-2,233.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 11 OF 12)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1,499.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 8 OF 12)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2,565.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PURCHASE CONVERT ONLIN MANDALUYONG PH (INSTALMENT 4 OF 6)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7,368.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PEDRO SM MEGAMALL MANDALUYONG PH (INSTALMENT 1 OF 3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1,075.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03/17/24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FINANCE CHARGE-RETAIL PURCHASES</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>381.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SM STORE-MEGAMALL MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,799.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02/18/24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>02/19/24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>APERITIF-SM MEGAMALL MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3,900.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02/22/24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PAYMENT RECEIVED - THANK YOU</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-7,500.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>JAMBA JUICE ROB MANILA MANILA PH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>215.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EO-EXECUTIVE OPTICAL MANILA PH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,375.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PHO HOA ROB PLACE MLA MANILA PHL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>355.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02/25/24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GRAB MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PIERRE CARDIN-ROB METR PASIG CITY PHL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>549.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02/26/24</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02/27/24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BONCHON SM LIGHT MANDALUYONG PHL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>369.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02/28/24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>02/29/24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SMART APP MAKATI PHL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>03/05/24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>03/07/24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>596.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03/09/24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>03/11/24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SHOPEE PH TAGUIG PHL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,666.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>03/10/24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EXECUTIVE OPTICAL MEG MANDALUYONG PH</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>900.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36,306.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>36,306.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mar 17, 2024</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Apr 11, 2024</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/parsePDFs03/Transactions.xlsx
+++ b/parsePDFs03/Transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojell\Desktop\Oj\_Automation\parse_pdf-projects\parsePDFs03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32624D5-FE5F-463D-AD06-0BEFB8FB7D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FFF0CD-0529-4946-8620-DA1843A2AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
